--- a/example/java.xlsx
+++ b/example/java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbuchihori\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E87BE-8BAD-4E03-BFF2-6D2EC29B3774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC23804-4CA2-4CEF-A59D-50502C7C1AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" xr2:uid="{7F16F5B5-09FF-44BE-8175-D6538264FB4A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{7F16F5B5-09FF-44BE-8175-D6538264FB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>age</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -166,6 +162,10 @@
     <t>public String toString() {
   return "";
 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>studentName</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,20 +238,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,23 +567,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27528F35-40FA-4570-90A7-0D13E0069DD9}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -594,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -618,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -634,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -642,7 +639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,20 +647,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -676,18 +673,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D5E8E4-812F-445C-AE6F-80E81D88736A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -698,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -706,7 +703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -714,7 +711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -725,20 +722,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -748,6 +745,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006D7F4B2CE29CF2448420618C4216EB46" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="94c45ea443adcc7d6bd0ad2ee831df46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4288a5eb-72cf-4d6e-a681-7568a9557480" xmlns:ns4="9428b60c-4162-4869-b906-cfd1da88f1f8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63ec3f283869693b5dfa7bd551f632e9" ns3:_="" ns4:_="">
     <xsd:import namespace="4288a5eb-72cf-4d6e-a681-7568a9557480"/>
@@ -976,15 +982,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -994,6 +991,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04CB9B6-3D1C-4B09-BA39-D1A3A960CF35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B92889-0205-444B-8D3E-41FF4AE12A76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1012,14 +1017,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04CB9B6-3D1C-4B09-BA39-D1A3A960CF35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13DF77E2-FF51-4318-A746-EDF42F814C30}">
   <ds:schemaRefs>
